--- a/biology/Zoologie/Chevêche_des_terriers/Chevêche_des_terriers.xlsx
+++ b/biology/Zoologie/Chevêche_des_terriers/Chevêche_des_terriers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Athene cunicularia
 La Chevêche des terriers (Athene cunicularia) ou Chouette des terriers est une chouette aux longues pattes adaptées à la vie dans les prairies d'Amérique du Nord et du Sud. Elle habite les prairies de la Saskatchewan et de l'Alberta au Canada, où elle est menacée. Cependant, elle abonde dans le néotropique, où on la rencontre même en milieu urbain, typiquement dans les parcs ou aux alentours des villes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chevêche possède un plumage gris-brun piqueté de blanc sur le dessus, rayé de blanc sur le ventre. Sa couleur lui permet de se dissimuler lorsqu'elle est sur le sol. Le mâle et la femelle sont semblables mais les jeunes ont la gorge de couleur chamois-rouille.
 Sa tête ronde est proche de celle des hiboux, ses yeux et son bec sont jaunes. La chevêche des terriers est surtout caractérisée par la longueur de ses pattes en comparaison au corps. La queue est, par contre, plutôt courte. Cette espèce mesure environ 24 cm de la tête à la queue, pèse entre 125 et 175 grammes et peut vivre de 3 à 4 ans.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Cri</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La chevêche des terriers est plutôt silencieuse, cependant elle possède plusieurs cris :
 un « jacassement » d'avertissement ;
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carnivore, la chevêche des terriers se nourrit de sauterelles, de grillons, de coléoptères, de souris ou encore d'oiseaux[1].
-Cet oiseau peut se servir d'appâts, à savoir des bouses de vache placées à l'entrée de son terrier, pour attirer les insectes coprophages dont il se nourrit[2]. Il présente ainsi un exemple d’utilisation d'outil par un animal.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carnivore, la chevêche des terriers se nourrit de sauterelles, de grillons, de coléoptères, de souris ou encore d'oiseaux.
+Cet oiseau peut se servir d'appâts, à savoir des bouses de vache placées à l'entrée de son terrier, pour attirer les insectes coprophages dont il se nourrit. Il présente ainsi un exemple d’utilisation d'outil par un animal.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Chevêche des terriers a besoin de terrains ouverts et de sols sablonneux pour creuser ses terriers et chasser ses proies. Elle se trouve souvent dans les plaines arides, les déserts, les savanes et les pâturages. Elle peut également être observée dans les jardins, les parcs et les jardins potagers lorsqu'elle est attirée par les insectes et les vers de terre. Cependant, contrairement à certaines autres espèces d'oiseaux tels que les perroquets ou les perruches, la Chevêche des terriers ne creuse généralement pas son propre terrier. Elle utilise plutôt des terriers abandonnés par d'autres animaux ou des crevasses naturelles dans le sol pour se protéger et se reproduire.</t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prédateurs naturels des chevêches incluent les rapaces nocturnes tels que les chouettes et les hiboux, qui chassent principalement les jeunes Chevêches des terriers et les oisillons. Les chats domestiques et sauvages, les renards et les serpents tel que le crotale sont également connus pour attaquer les Chevêches des terriers, surtout lorsqu'elles sont vulnérables et exposées, comme lorsqu'elles sortent de leur terrier ou sont en train de se nourrir.
 Elles sont également menacées par les activités humaines, comme l'urbanisation, la déforestation et l'agriculture intensive, qui peuvent détruire leur habitat naturel et perturber leur cycle de vie. En outre, la Chevêche des terriers est souvent victime de braconnage et de trafic illégal d'espèces, en raison de la demande pour ses plumes et ses œufs.
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La chouette des terriers est répandue en Amérique, depuis les plaines du Saskatchewan au Canada, jusqu'au sud de l'Argentine. Elle est cependant absente de certaines parties de l'Amérique du Sud, notamment au nord-ouest du continent.
 </t>
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,7 +731,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 23 sous-espèces (dont 3 éteintes) :
 Athene cunicularia amaura (Lawrence, 1878) - Éteinte ;
@@ -724,7 +750,7 @@
 Athene cunicularia hypugaea (Bonaparte, 1825) ;
 Athene cunicularia intermedia (Cory, 1915) ;
 Athene cunicularia juninensis (Berlepsch et Stolzmann, 1902) ;
-Athene cunicularia minor (Cory, 1918) - Nord du Brésil, Guyana, Guyane[3] ;
+Athene cunicularia minor (Cory, 1918) - Nord du Brésil, Guyana, Guyane ;
 Athene cunicularia nanodes (Berlepsch et Stolzmann, 1892) ;
 Athene cunicularia partridgei Olrog, 1976 ;
 Athene cunicularia pichinchae (Boetticher, 1929) ;
@@ -742,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -760,7 +786,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est classée « préoccupation mineure » par l'UICN.
 De plus, elle est protégée par la Convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES) , qui interdit le commerce international de cette espèce.
@@ -775,7 +803,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chev%C3%AAche_des_terriers</t>
+          <t>Chevêche_des_terriers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +821,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Faune et flore du pays
 La Voie VerteMC de la Région des Prairies et du Nord
